--- a/distributed-tensorflow-simulator/exp_results/vgg16/graphs/10gbps_inrack_even_nostriping.xlsx
+++ b/distributed-tensorflow-simulator/exp_results/vgg16/graphs/10gbps_inrack_even_nostriping.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="out" sheetId="1" r:id="rId1"/>
+    <sheet name="out (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>multicast</t>
   </si>
@@ -76,17 +76,41 @@
   <si>
     <t xml:space="preserve"> Striping: 0</t>
   </si>
+  <si>
+    <t>VGG: Aggregation/No Multicast vs Baseline</t>
+  </si>
+  <si>
+    <t>VGG: Multicast/No Aggregation vs Baseline)</t>
+  </si>
+  <si>
+    <t>VGG: Aggregation/Multicast vs Baseline</t>
+  </si>
+  <si>
+    <t>VGG: Multicast+Agg vs Multicast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -110,8 +134,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,82 +170,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>VGG-16: Percentage</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Improvement vs. Number of Workers (Aggregation/No Multicast vs Baseline)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102694892196067"/>
+          <c:y val="0.0274856997713995"/>
+          <c:w val="0.866779211499086"/>
+          <c:h val="0.847606807213614"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -226,7 +193,7 @@
             <c:v>1 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="41275" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -238,87 +205,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$4:$G$8</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0506</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0089</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$4:$F$8</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0139</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0014</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -342,7 +238,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$4:$E$8</c:f>
+              <c:f>'out (2)'!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -373,10 +269,11 @@
             <c:v>2 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="41275" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -385,87 +282,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$10:$G$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>19.9448</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>11.2213</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>5.4773</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.3504</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.2799</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$10:$F$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>4.1228</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>12.8347</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>7.6907</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.7185</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.355</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -489,7 +315,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$10:$E$14</c:f>
+              <c:f>'out (2)'!$E$10:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -520,10 +346,11 @@
             <c:v>4 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="41275" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -532,87 +359,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$16:$G$20</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>8.4432</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.4532</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>6.8742</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.6449</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.5261</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$16:$F$20</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0024</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>14.5964</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.8748</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>11.0074</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.1963</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -636,7 +392,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$16:$E$20</c:f>
+              <c:f>'out (2)'!$E$16:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -667,10 +423,11 @@
             <c:v>8 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="53975" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -679,87 +436,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$22:$G$26</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>2.4668</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.8579</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>13.6352</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.1386</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.848</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$22:$F$26</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>7.8229</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.8603</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.058</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.9272</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -783,7 +469,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$22:$E$26</c:f>
+              <c:f>'out (2)'!$E$22:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -815,13 +501,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2099842912"/>
-        <c:axId val="-2099884048"/>
+        <c:axId val="-2032385920"/>
+        <c:axId val="-2053299360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2099842912"/>
+        <c:axId val="-2032385920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32.0"/>
+          <c:min val="2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -846,7 +534,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -859,7 +547,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600" b="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -883,7 +571,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -905,12 +593,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -921,7 +606,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -936,14 +621,689 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099884048"/>
+        <c:crossAx val="-2053299360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2099884048"/>
+        <c:axId val="-2053299360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Percentage Improvement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00560747663551402"/>
+              <c:y val="0.245325197869024"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2032385920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.120992923937272"/>
+          <c:y val="0.097221207738643"/>
+          <c:w val="0.83462245061704"/>
+          <c:h val="0.15706113034572"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102257217847769"/>
+          <c:y val="0.0381523530488921"/>
+          <c:w val="0.867097057893941"/>
+          <c:h val="0.836362082646646"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 PS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'out (2)'!$E$29:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 PS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'out (2)'!$E$35:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.3948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.1508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.7922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 PS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'out (2)'!$E$41:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.3136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.4435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 PS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'out (2)'!$E$47:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.4681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.5885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.3176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2033114672"/>
+        <c:axId val="-2053379312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2033114672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32.0"/>
+          <c:min val="2.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of Workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2053379312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2053379312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -981,26 +1341,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Percentage</a:t>
+                  <a:t>Percentage Improvement</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> Improvement: Agg+No Multicast over Baseline</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1040,12 +1387,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1056,7 +1400,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1071,13 +1415,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099842912"/>
+        <c:crossAx val="-2033114672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1089,9 +1434,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.465908455368313"/>
-          <c:y val="0.666558555989039"/>
-          <c:w val="0.481857384649349"/>
+          <c:x val="0.10321868688347"/>
+          <c:y val="0.0559505352904626"/>
+          <c:w val="0.843373871459785"/>
           <c:h val="0.0488360106345051"/>
         </c:manualLayout>
       </c:layout>
@@ -1108,7 +1453,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1126,16 +1471,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1158,7 +1496,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1172,82 +1510,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>VGG-16: Percentage</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Improvement vs. Number of Workers (Multicast/No Aggregation vs Baseline)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10749281994201"/>
+          <c:y val="0.0380540222420651"/>
+          <c:w val="0.855665993321515"/>
+          <c:h val="0.846687636983521"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1258,7 +1533,7 @@
             <c:v>1 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1270,87 +1545,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$29:$G$33</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$29:$F$33</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0506</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0274</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1374,24 +1578,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$29:$E$33</c:f>
+              <c:f>'out (2)'!$E$54:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0506</c:v>
+                  <c:v>5.7598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0304</c:v>
+                  <c:v>43.3986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0169</c:v>
+                  <c:v>67.6443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0089</c:v>
+                  <c:v>82.8636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0046</c:v>
+                  <c:v>91.17019999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,10 +1609,11 @@
             <c:v>2 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1417,87 +1622,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$35:$G$39</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>4.1467</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>17.3411</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11.0735</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.3843</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.2154</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$35:$F$39</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>33.503</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.2065</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.1336</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.2608</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.8897</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1521,24 +1655,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$35:$E$39</c:f>
+              <c:f>'out (2)'!$E$60:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15.3948</c:v>
+                  <c:v>1.4772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4113</c:v>
+                  <c:v>31.9698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.1508</c:v>
+                  <c:v>60.0484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0643</c:v>
+                  <c:v>78.8382</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.7922</c:v>
+                  <c:v>88.7078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,10 +1686,11 @@
             <c:v>4 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1564,87 +1699,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$41:$G$45</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>11.0152</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>9.4664</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.9249</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.4331</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.424</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$41:$F$45</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.1614</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>10.7863</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.0889</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.1315</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1668,24 +1732,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$41:$E$45</c:f>
+              <c:f>'out (2)'!$E$66:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>-7.6188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.5959</c:v>
+                  <c:v>13.7881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.898</c:v>
+                  <c:v>44.2815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.3136</c:v>
+                  <c:v>68.3867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.4435</c:v>
+                  <c:v>82.4443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1699,10 +1763,11 @@
             <c:v>8 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="47625" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1711,87 +1776,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$47:$G$51</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>2.4192</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.5683</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>15.8033</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.2142</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.8887</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$47:$F$51</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.2755</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.7015</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.691099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.5264</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1815,24 +1809,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$47:$E$51</c:f>
+              <c:f>'out (2)'!$E$72:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>-2.0303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.4681</c:v>
+                  <c:v>5.9103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.5885</c:v>
+                  <c:v>15.3365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.545</c:v>
+                  <c:v>47.2236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.3176</c:v>
+                  <c:v>71.8071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,13 +1841,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2105647744"/>
-        <c:axId val="-2105654272"/>
+        <c:axId val="-2034294448"/>
+        <c:axId val="-2034307184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2105647744"/>
+        <c:axId val="-2034294448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32.0"/>
+          <c:min val="2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1878,7 +1874,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1891,7 +1887,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1901,7 +1897,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1915,7 +1910,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1937,12 +1932,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1953,7 +1945,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1968,14 +1960,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105654272"/>
+        <c:crossAx val="-2034307184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2105654272"/>
+        <c:axId val="-2034307184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2013,7 +2007,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2021,22 +2015,16 @@
                   <a:t>Percentage</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> Improvement: Multicast+No Agg over Baseline</a:t>
+                  <a:t> Improvement</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2072,12 +2060,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2088,7 +2073,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2103,7 +2088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105647744"/>
+        <c:crossAx val="-2034294448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2121,10 +2106,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.458237274244065"/>
-          <c:y val="0.713130354177914"/>
-          <c:w val="0.499569270848579"/>
-          <c:h val="0.0488360106345051"/>
+          <c:x val="0.566647290816397"/>
+          <c:y val="0.584871134020619"/>
+          <c:w val="0.355287408445672"/>
+          <c:h val="0.247289552723435"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2140,7 +2125,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2158,1048 +2143,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>VGG-16: Percentage</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Improvement vs. Number of Workers (Aggregation/Multicast vs Baseline)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1 PS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$54:$G$58</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0029</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.8898</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.4712</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$54:$F$58</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>2.665</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.6165</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>out!$E$54:$E$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.7598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43.3986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.6443</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82.8636</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91.17019999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2 PS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$60:$G$64</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>3.4081</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6.9403</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.7057</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.3579</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.4584</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$60:$F$64</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>17.9149</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.9698</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0336</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.9386</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.3628</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>out!$E$60:$E$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.4772</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.9698</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60.0484</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78.8382</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88.7078</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>4 PS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$66:$G$70</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>11.8523</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.9394</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.8097</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.429</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.0769</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$66:$F$70</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0024</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.7564</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.9849</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.0832</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.6019</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>out!$E$66:$E$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-7.6188</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.7881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44.2815</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.3867</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82.4443</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>8 PS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$72:$G$76</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>2.4668</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.8579</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>7.2612</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.5205</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.8899</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$72:$F$76</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.4347</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.6889</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.5221</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.6266</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>out!$E$72:$E$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-2.0303</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9103</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.3365</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.2236</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71.8071</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2106134048"/>
-        <c:axId val="-2106152400"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2106134048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Number of Workers</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2106152400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2106152400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Percentage</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> Improvement: Multicast+Agg over Baseline</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2106134048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.458044886256131"/>
-          <c:y val="0.619986757800165"/>
-          <c:w val="0.494903430509264"/>
-          <c:h val="0.0488360106345051"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3236,82 +2182,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>VGG-16: Percentage</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Improvement vs. Number of Workers (Multicast+Agg vs Multicast)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.104710530293661"/>
+          <c:y val="0.0336351875808538"/>
+          <c:w val="0.864643745448049"/>
+          <c:h val="0.82993063124548"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3322,7 +2205,7 @@
             <c:v>1 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3334,87 +2217,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$79:$G$83</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0506</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.89</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.4713</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$79:$F$83</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>2.6663</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.6011</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3438,7 +2250,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$79:$E$83</c:f>
+              <c:f>'out (2)'!$E$79:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3469,10 +2281,11 @@
             <c:v>2 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3481,87 +2294,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$85:$G$89</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>17.8644</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.8976</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.6356</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.2308</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$85:$F$89</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>1.7695</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6.5082</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.7838</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.4357</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3585,7 +2327,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$85:$E$89</c:f>
+              <c:f>'out (2)'!$E$85:$E$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3616,10 +2358,11 @@
             <c:v>4 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3628,87 +2371,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$91:$G$95</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>8.4456</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5.5643</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.306</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0433</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.1964</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$91:$F$95</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.746</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.3773</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.3331</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.013</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3732,7 +2404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$91:$E$95</c:f>
+              <c:f>'out (2)'!$E$91:$E$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3763,10 +2435,11 @@
             <c:v>8 PS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="47625" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3775,87 +2448,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>out!$G$97:$G$101</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.2611</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.8661</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.8464</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.1718</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>out!$F$97:$F$101</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>0.0015</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.3982</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>7.1846</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.1454</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0012</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>out!$D$4:$D$8</c:f>
+              <c:f>'out (2)'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3879,7 +2481,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>out!$E$97:$E$101</c:f>
+              <c:f>'out (2)'!$E$97:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3911,13 +2513,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106521568"/>
-        <c:axId val="-2106546896"/>
+        <c:axId val="-2034534880"/>
+        <c:axId val="-2034565008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106521568"/>
+        <c:axId val="-2034534880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32.0"/>
+          <c:min val="2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3942,7 +2546,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3955,7 +2559,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3965,7 +2569,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3979,7 +2582,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4001,12 +2604,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4017,7 +2617,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4032,14 +2632,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106546896"/>
+        <c:crossAx val="-2034565008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106546896"/>
+        <c:axId val="-2034565008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4064,7 +2665,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4077,30 +2678,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Percentage</a:t>
+                  <a:t>Percentage Improvement</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> Improvement: Multicast+Agg over Multicast</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4114,7 +2701,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4136,12 +2723,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4152,7 +2736,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4167,7 +2751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106521568"/>
+        <c:crossAx val="-2034534880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4185,9 +2769,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.470281401632914"/>
-          <c:y val="0.583764248097707"/>
-          <c:w val="0.49458973762966"/>
+          <c:x val="0.123366450921384"/>
+          <c:y val="0.0611251795336708"/>
+          <c:w val="0.824432672355746"/>
           <c:h val="0.0488360106345051"/>
         </c:manualLayout>
       </c:layout>
@@ -4204,7 +2788,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4222,16 +2806,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6483,15 +5060,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>128524</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>96266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6515,15 +5092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>64516</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6547,15 +5124,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6579,15 +5156,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>178816</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6624,13 +5201,7 @@
             <v>2</v>
           </cell>
           <cell r="E4">
-            <v>4.2862999999999998</v>
-          </cell>
-          <cell r="F4">
-            <v>2.0007999999999999</v>
-          </cell>
-          <cell r="G4">
-            <v>3.7900000000000003E-2</v>
+            <v>-27.4893</v>
           </cell>
         </row>
         <row r="5">
@@ -6638,13 +5209,7 @@
             <v>4</v>
           </cell>
           <cell r="E5">
-            <v>26.124600000000001</v>
-          </cell>
-          <cell r="F5">
-            <v>0</v>
-          </cell>
-          <cell r="G5">
-            <v>1.0024999999999999</v>
+            <v>-16.510300000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -6652,13 +5217,7 @@
             <v>8</v>
           </cell>
           <cell r="E6">
-            <v>38.559100000000001</v>
-          </cell>
-          <cell r="F6">
-            <v>0.50070000000000003</v>
-          </cell>
-          <cell r="G6">
-            <v>0</v>
+            <v>-9.1598000000000006</v>
           </cell>
         </row>
         <row r="7">
@@ -6666,13 +5225,7 @@
             <v>16</v>
           </cell>
           <cell r="E7">
-            <v>44.027999999999999</v>
-          </cell>
-          <cell r="F7">
-            <v>5.0000000000000001E-4</v>
-          </cell>
-          <cell r="G7">
-            <v>0.25019999999999998</v>
+            <v>-4.8611000000000004</v>
           </cell>
         </row>
         <row r="8">
@@ -6680,838 +5233,382 @@
             <v>32</v>
           </cell>
           <cell r="E8">
-            <v>47.0137</v>
-          </cell>
-          <cell r="F8">
-            <v>0</v>
-          </cell>
-          <cell r="G8">
-            <v>0</v>
+            <v>-2.5001000000000002</v>
           </cell>
         </row>
         <row r="10">
           <cell r="E10">
-            <v>-0.20730000000000001</v>
-          </cell>
-          <cell r="F10">
-            <v>38.104500000000002</v>
-          </cell>
-          <cell r="G10">
-            <v>0.30130000000000001</v>
+            <v>-15.0625</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>14.7315</v>
-          </cell>
-          <cell r="F11">
-            <v>0.2137</v>
-          </cell>
-          <cell r="G11">
-            <v>4.0477999999999996</v>
+            <v>2.1162000000000001</v>
           </cell>
         </row>
         <row r="12">
           <cell r="E12">
-            <v>32.246699999999997</v>
-          </cell>
-          <cell r="F12">
-            <v>0.84530000000000005</v>
-          </cell>
-          <cell r="G12">
-            <v>0.38569999999999999</v>
+            <v>9.8254999999999999</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>41.312800000000003</v>
-          </cell>
-          <cell r="F13">
-            <v>0.19289999999999999</v>
-          </cell>
-          <cell r="G13">
-            <v>5.2299999999999999E-2</v>
+            <v>14.4489</v>
           </cell>
         </row>
         <row r="14">
           <cell r="E14">
-            <v>45.558900000000001</v>
-          </cell>
-          <cell r="F14">
-            <v>0</v>
-          </cell>
-          <cell r="G14">
-            <v>0</v>
+            <v>19.0334</v>
           </cell>
         </row>
         <row r="16">
           <cell r="E16">
             <v>-7.6188000000000002</v>
           </cell>
-          <cell r="F16">
-            <v>2.3999999999999998E-3</v>
-          </cell>
-          <cell r="G16">
-            <v>8.3733000000000004</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="E17">
-            <v>2.2189999999999999</v>
-          </cell>
-          <cell r="F17">
-            <v>8.0208999999999993</v>
-          </cell>
-          <cell r="G17">
-            <v>7.6959</v>
+            <v>3.8111000000000002</v>
           </cell>
         </row>
         <row r="18">
           <cell r="E18">
-            <v>18.6614</v>
-          </cell>
-          <cell r="F18">
-            <v>5.2309999999999999</v>
-          </cell>
-          <cell r="G18">
-            <v>6.3080999999999996</v>
+            <v>12.045</v>
           </cell>
         </row>
         <row r="19">
           <cell r="E19">
-            <v>35.346400000000003</v>
-          </cell>
-          <cell r="F19">
-            <v>3.9300000000000002E-2</v>
-          </cell>
-          <cell r="G19">
-            <v>0.20730000000000001</v>
+            <v>24.871500000000001</v>
           </cell>
         </row>
         <row r="20">
           <cell r="E20">
-            <v>42.655200000000001</v>
-          </cell>
-          <cell r="F20">
-            <v>4.4999999999999997E-3</v>
-          </cell>
-          <cell r="G20">
-            <v>0.1133</v>
+            <v>26.210999999999999</v>
           </cell>
         </row>
         <row r="22">
           <cell r="E22">
             <v>-2.0303</v>
           </cell>
-          <cell r="F22">
-            <v>1.5E-3</v>
-          </cell>
-          <cell r="G22">
-            <v>0.51400000000000001</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="E23">
-            <v>1.2175</v>
-          </cell>
-          <cell r="F23">
-            <v>3.2565</v>
-          </cell>
-          <cell r="G23">
-            <v>4.2436999999999996</v>
+            <v>5.9103000000000003</v>
           </cell>
         </row>
         <row r="24">
           <cell r="E24">
-            <v>4.4372999999999996</v>
-          </cell>
-          <cell r="F24">
-            <v>3.5165999999999999</v>
-          </cell>
-          <cell r="G24">
-            <v>2.8346</v>
+            <v>-0.48</v>
           </cell>
         </row>
         <row r="25">
           <cell r="E25">
-            <v>24.488</v>
-          </cell>
-          <cell r="F25">
-            <v>0.4214</v>
-          </cell>
-          <cell r="G25">
-            <v>3.7364999999999999</v>
+            <v>18.237400000000001</v>
           </cell>
         </row>
         <row r="26">
           <cell r="E26">
-            <v>36.855499999999999</v>
-          </cell>
-          <cell r="F26">
-            <v>0</v>
-          </cell>
-          <cell r="G26">
-            <v>3.8300000000000001E-2</v>
+            <v>29.861599999999999</v>
           </cell>
         </row>
         <row r="29">
           <cell r="E29">
-            <v>24.962</v>
-          </cell>
-          <cell r="F29">
-            <v>0</v>
-          </cell>
-          <cell r="G29">
-            <v>0</v>
+            <v>5.0599999999999999E-2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="E30">
-            <v>37.471499999999999</v>
-          </cell>
-          <cell r="F30">
-            <v>6.9999999999999999E-4</v>
-          </cell>
-          <cell r="G30">
-            <v>1.1999999999999999E-3</v>
+            <v>3.04E-2</v>
           </cell>
         </row>
         <row r="31">
           <cell r="E31">
-            <v>43.732999999999997</v>
-          </cell>
-          <cell r="F31">
-            <v>0</v>
-          </cell>
-          <cell r="G31">
-            <v>0</v>
+            <v>1.6899999999999998E-2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="E32">
-            <v>46.865900000000003</v>
-          </cell>
-          <cell r="F32">
-            <v>0</v>
-          </cell>
-          <cell r="G32">
-            <v>2.0000000000000001E-4</v>
+            <v>8.8999999999999999E-3</v>
           </cell>
         </row>
         <row r="33">
           <cell r="E33">
-            <v>48.4328</v>
-          </cell>
-          <cell r="F33">
-            <v>0</v>
-          </cell>
-          <cell r="G33">
-            <v>0</v>
+            <v>4.5999999999999999E-3</v>
           </cell>
         </row>
         <row r="35">
           <cell r="E35">
-            <v>6.2799999999999995E-2</v>
-          </cell>
-          <cell r="F35">
-            <v>19.635899999999999</v>
-          </cell>
-          <cell r="G35">
-            <v>14.0908</v>
+            <v>15.3948</v>
           </cell>
         </row>
         <row r="36">
           <cell r="E36">
-            <v>24.630800000000001</v>
-          </cell>
-          <cell r="F36">
-            <v>6.3993000000000002</v>
-          </cell>
-          <cell r="G36">
-            <v>4.0720000000000001</v>
+            <v>5.4112999999999998</v>
           </cell>
         </row>
         <row r="37">
           <cell r="E37">
-            <v>37.472700000000003</v>
-          </cell>
-          <cell r="F37">
-            <v>0</v>
-          </cell>
-          <cell r="G37">
-            <v>0</v>
+            <v>16.1508</v>
           </cell>
         </row>
         <row r="38">
           <cell r="E38">
-            <v>43.732999999999997</v>
-          </cell>
-          <cell r="F38">
-            <v>0</v>
-          </cell>
-          <cell r="G38">
-            <v>0</v>
+            <v>21.064299999999999</v>
           </cell>
         </row>
         <row r="39">
           <cell r="E39">
-            <v>46.866100000000003</v>
-          </cell>
-          <cell r="F39">
-            <v>0</v>
-          </cell>
-          <cell r="G39">
-            <v>0</v>
+            <v>20.792200000000001</v>
           </cell>
         </row>
         <row r="41">
           <cell r="E41">
             <v>0</v>
           </cell>
-          <cell r="F41">
-            <v>0</v>
-          </cell>
-          <cell r="G41">
-            <v>7.8455000000000004</v>
-          </cell>
         </row>
         <row r="42">
           <cell r="E42">
-            <v>0</v>
-          </cell>
-          <cell r="F42">
-            <v>9.1143999999999998</v>
-          </cell>
-          <cell r="G42">
-            <v>1.0697000000000001</v>
+            <v>-1.5959000000000001</v>
           </cell>
         </row>
         <row r="43">
           <cell r="E43">
-            <v>21.927700000000002</v>
-          </cell>
-          <cell r="F43">
-            <v>5.1435000000000004</v>
-          </cell>
-          <cell r="G43">
-            <v>4.1829999999999998</v>
+            <v>19.898</v>
           </cell>
         </row>
         <row r="44">
           <cell r="E44">
-            <v>37.420699999999997</v>
-          </cell>
-          <cell r="F44">
-            <v>1.2637</v>
-          </cell>
-          <cell r="G44">
-            <v>6.2700000000000006E-2</v>
+            <v>27.313600000000001</v>
           </cell>
         </row>
         <row r="45">
           <cell r="E45">
-            <v>43.724400000000003</v>
-          </cell>
-          <cell r="F45">
-            <v>2.1899999999999999E-2</v>
-          </cell>
-          <cell r="G45">
-            <v>8.6E-3</v>
+            <v>27.4435</v>
           </cell>
         </row>
         <row r="47">
           <cell r="E47">
             <v>0</v>
           </cell>
-          <cell r="F47">
-            <v>0</v>
-          </cell>
-          <cell r="G47">
-            <v>0</v>
-          </cell>
         </row>
         <row r="48">
           <cell r="E48">
-            <v>0</v>
-          </cell>
-          <cell r="F48">
-            <v>9.9677000000000007</v>
-          </cell>
-          <cell r="G48">
-            <v>4.2958999999999996</v>
+            <v>-0.46810000000000002</v>
           </cell>
         </row>
         <row r="49">
           <cell r="E49">
-            <v>-5.0961999999999996</v>
-          </cell>
-          <cell r="F49">
-            <v>11.716900000000001</v>
-          </cell>
-          <cell r="G49">
-            <v>2.4969999999999999</v>
+            <v>-7.5884999999999998</v>
           </cell>
         </row>
         <row r="50">
           <cell r="E50">
-            <v>20.260899999999999</v>
-          </cell>
-          <cell r="F50">
-            <v>3.1158999999999999</v>
-          </cell>
-          <cell r="G50">
-            <v>3.5464000000000002</v>
+            <v>16.545000000000002</v>
           </cell>
         </row>
         <row r="51">
           <cell r="E51">
-            <v>37.429000000000002</v>
-          </cell>
-          <cell r="F51">
-            <v>1.8173999999999999</v>
-          </cell>
-          <cell r="G51">
-            <v>1.9E-2</v>
+            <v>31.317599999999999</v>
           </cell>
         </row>
         <row r="54">
           <cell r="E54">
-            <v>27.247499999999999</v>
-          </cell>
-          <cell r="F54">
-            <v>0</v>
-          </cell>
-          <cell r="G54">
-            <v>2.0388000000000002</v>
+            <v>5.7598000000000003</v>
           </cell>
         </row>
         <row r="55">
           <cell r="E55">
-            <v>63.596800000000002</v>
-          </cell>
-          <cell r="F55">
-            <v>6.9999999999999999E-4</v>
-          </cell>
-          <cell r="G55">
-            <v>1.0004999999999999</v>
+            <v>43.398600000000002</v>
           </cell>
         </row>
         <row r="56">
           <cell r="E56">
-            <v>81.791300000000007</v>
-          </cell>
-          <cell r="F56">
-            <v>0</v>
-          </cell>
-          <cell r="G56">
-            <v>0</v>
+            <v>67.644300000000001</v>
           </cell>
         </row>
         <row r="57">
           <cell r="E57">
-            <v>90.893900000000002</v>
-          </cell>
-          <cell r="F57">
-            <v>0</v>
-          </cell>
-          <cell r="G57">
-            <v>0</v>
+            <v>82.863600000000005</v>
           </cell>
         </row>
         <row r="58">
           <cell r="E58">
-            <v>95.4465</v>
-          </cell>
-          <cell r="F58">
-            <v>2.3999999999999998E-3</v>
-          </cell>
-          <cell r="G58">
-            <v>0</v>
+            <v>91.170199999999994</v>
           </cell>
         </row>
         <row r="60">
           <cell r="E60">
-            <v>3.1899999999999998E-2</v>
-          </cell>
-          <cell r="F60">
-            <v>17.913699999999999</v>
-          </cell>
-          <cell r="G60">
-            <v>1.6791</v>
+            <v>1.4772000000000001</v>
           </cell>
         </row>
         <row r="61">
           <cell r="E61">
-            <v>40.481999999999999</v>
-          </cell>
-          <cell r="F61">
-            <v>1.0021</v>
-          </cell>
-          <cell r="G61">
-            <v>2.9456000000000002</v>
+            <v>31.969799999999999</v>
           </cell>
         </row>
         <row r="62">
           <cell r="E62">
-            <v>70.207599999999999</v>
-          </cell>
-          <cell r="F62">
-            <v>0</v>
-          </cell>
-          <cell r="G62">
-            <v>0</v>
+            <v>60.048400000000001</v>
           </cell>
         </row>
         <row r="63">
           <cell r="E63">
-            <v>85.097999999999999</v>
-          </cell>
-          <cell r="F63">
-            <v>0.24510000000000001</v>
-          </cell>
-          <cell r="G63">
-            <v>0</v>
+            <v>78.838200000000001</v>
           </cell>
         </row>
         <row r="64">
           <cell r="E64">
-            <v>92.424999999999997</v>
-          </cell>
-          <cell r="F64">
-            <v>0</v>
-          </cell>
-          <cell r="G64">
-            <v>0.1226</v>
+            <v>88.707800000000006</v>
           </cell>
         </row>
         <row r="66">
           <cell r="E66">
             <v>-7.6188000000000002</v>
           </cell>
-          <cell r="F66">
-            <v>2.3999999999999998E-3</v>
-          </cell>
-          <cell r="G66">
-            <v>8.4431999999999992</v>
-          </cell>
         </row>
         <row r="67">
           <cell r="E67">
-            <v>10.8056</v>
-          </cell>
-          <cell r="F67">
-            <v>7.4318999999999997</v>
-          </cell>
-          <cell r="G67">
-            <v>6.9218999999999999</v>
+            <v>13.7881</v>
           </cell>
         </row>
         <row r="68">
           <cell r="E68">
-            <v>46.160800000000002</v>
-          </cell>
-          <cell r="F68">
-            <v>0.49669999999999997</v>
-          </cell>
-          <cell r="G68">
-            <v>2.4144999999999999</v>
+            <v>44.281500000000001</v>
           </cell>
         </row>
         <row r="69">
           <cell r="E69">
-            <v>73.018000000000001</v>
-          </cell>
-          <cell r="F69">
-            <v>0.24010000000000001</v>
-          </cell>
-          <cell r="G69">
-            <v>1.18E-2</v>
+            <v>68.386700000000005</v>
           </cell>
         </row>
         <row r="70">
           <cell r="E70">
-            <v>86.383600000000001</v>
-          </cell>
-          <cell r="F70">
-            <v>0</v>
-          </cell>
-          <cell r="G70">
-            <v>0.1191</v>
+            <v>82.444299999999998</v>
           </cell>
         </row>
         <row r="72">
           <cell r="E72">
             <v>-2.0303</v>
           </cell>
-          <cell r="F72">
-            <v>1.5E-3</v>
-          </cell>
-          <cell r="G72">
-            <v>0</v>
-          </cell>
         </row>
         <row r="73">
           <cell r="E73">
-            <v>1.2175</v>
-          </cell>
-          <cell r="F73">
-            <v>0</v>
-          </cell>
-          <cell r="G73">
-            <v>4.7695999999999996</v>
+            <v>5.9103000000000003</v>
           </cell>
         </row>
         <row r="74">
           <cell r="E74">
-            <v>13.523</v>
-          </cell>
-          <cell r="F74">
-            <v>1.1881999999999999</v>
-          </cell>
-          <cell r="G74">
-            <v>5.9363999999999999</v>
+            <v>15.336499999999999</v>
           </cell>
         </row>
         <row r="75">
           <cell r="E75">
-            <v>49.299799999999998</v>
-          </cell>
-          <cell r="F75">
-            <v>0.51149999999999995</v>
-          </cell>
-          <cell r="G75">
-            <v>2.6071</v>
+            <v>47.223599999999998</v>
           </cell>
         </row>
         <row r="76">
           <cell r="E76">
-            <v>74.330500000000001</v>
-          </cell>
-          <cell r="F76">
-            <v>1.5599999999999999E-2</v>
-          </cell>
-          <cell r="G76">
-            <v>0.1004</v>
+            <v>71.807100000000005</v>
           </cell>
         </row>
         <row r="79">
           <cell r="E79">
-            <v>3.0457999999999998</v>
-          </cell>
-          <cell r="F79">
-            <v>0</v>
-          </cell>
-          <cell r="G79">
-            <v>2.7168999999999999</v>
+            <v>5.7121000000000004</v>
           </cell>
         </row>
         <row r="80">
           <cell r="E80">
-            <v>41.780299999999997</v>
-          </cell>
-          <cell r="F80">
-            <v>0</v>
-          </cell>
-          <cell r="G80">
-            <v>1.6011</v>
+            <v>43.381399999999999</v>
           </cell>
         </row>
         <row r="81">
           <cell r="E81">
             <v>67.638800000000003</v>
           </cell>
-          <cell r="F81">
-            <v>0</v>
-          </cell>
-          <cell r="G81">
-            <v>0</v>
-          </cell>
         </row>
         <row r="82">
           <cell r="E82">
             <v>82.861999999999995</v>
           </cell>
-          <cell r="F82">
-            <v>0</v>
-          </cell>
-          <cell r="G82">
-            <v>0</v>
-          </cell>
         </row>
         <row r="83">
           <cell r="E83">
             <v>91.169799999999995</v>
           </cell>
-          <cell r="F83">
-            <v>4.5999999999999999E-3</v>
-          </cell>
-          <cell r="G83">
-            <v>0</v>
-          </cell>
         </row>
         <row r="85">
           <cell r="E85">
-            <v>1.4144000000000001</v>
-          </cell>
-          <cell r="F85">
-            <v>17.8644</v>
-          </cell>
-          <cell r="G85">
-            <v>6.2799999999999995E-2</v>
+            <v>-16.45</v>
           </cell>
         </row>
         <row r="86">
           <cell r="E86">
-            <v>20.652699999999999</v>
-          </cell>
-          <cell r="F86">
-            <v>1.3053999999999999</v>
-          </cell>
-          <cell r="G86">
-            <v>6.5587999999999997</v>
+            <v>27.211500000000001</v>
           </cell>
         </row>
         <row r="87">
           <cell r="E87">
             <v>52.353000000000002</v>
           </cell>
-          <cell r="F87">
-            <v>0</v>
-          </cell>
-          <cell r="G87">
-            <v>0</v>
-          </cell>
         </row>
         <row r="88">
           <cell r="E88">
             <v>73.515600000000006</v>
           </cell>
-          <cell r="F88">
-            <v>0.43569999999999998</v>
-          </cell>
-          <cell r="G88">
-            <v>0</v>
-          </cell>
         </row>
         <row r="89">
           <cell r="E89">
             <v>85.743499999999997</v>
           </cell>
-          <cell r="F89">
-            <v>0</v>
-          </cell>
-          <cell r="G89">
-            <v>0.23080000000000001</v>
-          </cell>
         </row>
         <row r="91">
           <cell r="E91">
             <v>-7.6212</v>
           </cell>
-          <cell r="F91">
-            <v>0</v>
-          </cell>
-          <cell r="G91">
-            <v>2.3999999999999998E-3</v>
-          </cell>
         </row>
         <row r="92">
           <cell r="E92">
-            <v>10.761900000000001</v>
-          </cell>
-          <cell r="F92">
-            <v>0.84240000000000004</v>
-          </cell>
-          <cell r="G92">
-            <v>6.9656000000000002</v>
+            <v>11.445</v>
           </cell>
         </row>
         <row r="93">
           <cell r="E93">
-            <v>30.5534</v>
-          </cell>
-          <cell r="F93">
-            <v>0.15029999999999999</v>
-          </cell>
-          <cell r="G93">
-            <v>4.7237999999999998</v>
+            <v>31.005299999999998</v>
           </cell>
         </row>
         <row r="94">
           <cell r="E94">
             <v>56.840299999999999</v>
           </cell>
-          <cell r="F94">
-            <v>0.33310000000000001</v>
-          </cell>
-          <cell r="G94">
-            <v>0.91510000000000002</v>
-          </cell>
         </row>
         <row r="95">
           <cell r="E95">
             <v>75.813500000000005</v>
           </cell>
-          <cell r="F95">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-          <cell r="G95">
-            <v>0.2</v>
-          </cell>
         </row>
         <row r="97">
           <cell r="E97">
             <v>-2.0303</v>
           </cell>
-          <cell r="F97">
-            <v>1.5E-3</v>
-          </cell>
-          <cell r="G97">
-            <v>0</v>
-          </cell>
         </row>
         <row r="98">
           <cell r="E98">
-            <v>5.0919999999999996</v>
-          </cell>
-          <cell r="F98">
-            <v>3.8744999999999998</v>
-          </cell>
-          <cell r="G98">
-            <v>5.0793999999999997</v>
+            <v>5.9103000000000003</v>
           </cell>
         </row>
         <row r="99">
           <cell r="E99">
-            <v>21.671399999999998</v>
-          </cell>
-          <cell r="F99">
-            <v>6.6914999999999996</v>
-          </cell>
-          <cell r="G99">
-            <v>3.2812000000000001</v>
+            <v>19.135400000000001</v>
           </cell>
         </row>
         <row r="100">
           <cell r="E100">
-            <v>38.191200000000002</v>
-          </cell>
-          <cell r="F100">
-            <v>2.9411999999999998</v>
-          </cell>
-          <cell r="G100">
-            <v>0.26050000000000001</v>
+            <v>36.3065</v>
           </cell>
         </row>
         <row r="101">
           <cell r="E101">
-            <v>59.1235</v>
-          </cell>
-          <cell r="F101">
-            <v>0.17299999999999999</v>
-          </cell>
-          <cell r="G101">
-            <v>0.98560000000000003</v>
+            <v>58.951700000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -7783,15 +5880,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7813,8 +5910,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7828,7 +5928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7836,7 +5936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7859,7 +5959,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -7882,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -7905,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -7928,7 +6028,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -7951,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -7974,7 +6074,7 @@
         <v>19.944800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -7997,7 +6097,7 @@
         <v>11.221299999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -8020,7 +6120,7 @@
         <v>5.4772999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -8043,7 +6143,7 @@
         <v>3.3504</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -8066,7 +6166,7 @@
         <v>3.2799</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -8089,7 +6189,7 @@
         <v>8.4431999999999992</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -8112,7 +6212,7 @@
         <v>4.4531999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -8135,7 +6235,7 @@
         <v>6.8742000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -8158,7 +6258,7 @@
         <v>0.64490000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -8181,7 +6281,7 @@
         <v>4.5260999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -8204,7 +6304,7 @@
         <v>2.4668000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -8227,7 +6327,7 @@
         <v>3.8578999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -8250,7 +6350,7 @@
         <v>13.635199999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -8273,7 +6373,7 @@
         <v>2.1385999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -8296,15 +6396,18 @@
         <v>2.8479999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -8327,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -8350,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -8373,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -8695,7 +6798,7 @@
         <v>4.5682999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -8718,7 +6821,7 @@
         <v>15.8033</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -8741,7 +6844,7 @@
         <v>4.2141999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -8764,7 +6867,7 @@
         <v>1.8887</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -8772,7 +6875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -8795,7 +6898,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -8817,8 +6920,11 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K55" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -8841,7 +6947,7 @@
         <v>0.88980000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -8864,7 +6970,7 @@
         <v>0.47120000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -8887,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -8910,7 +7016,7 @@
         <v>3.4081000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -8933,7 +7039,7 @@
         <v>6.9402999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -8956,7 +7062,7 @@
         <v>4.7057000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -8979,7 +7085,7 @@
         <v>0.3579</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -9283,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -9306,7 +7412,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -9328,8 +7434,11 @@
       <c r="G82">
         <v>0.4713</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L82" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -9352,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -9375,7 +7484,7 @@
         <v>17.8644</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -9398,7 +7507,7 @@
         <v>0.89759999999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -9421,7 +7530,7 @@
         <v>0.63560000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -9444,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -9467,7 +7576,7 @@
         <v>0.23080000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -9490,7 +7599,7 @@
         <v>8.4456000000000007</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -9513,7 +7622,7 @@
         <v>5.5643000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -9536,7 +7645,7 @@
         <v>3.306</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -9559,7 +7668,7 @@
         <v>4.3299999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
